--- a/doc/SOMI工作量估算.xlsx
+++ b/doc/SOMI工作量估算.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\research17\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\somi\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0B40D3-3FF3-4476-A479-7E2425C9979A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16206EF-4517-4823-8CF5-24207037DA2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,7 +582,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,6 +598,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,7 +680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -753,17 +765,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1047,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652B373E-8C78-4494-A7E7-8897C2F3E6EC}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1094,10 +1118,10 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="30">
         <v>5</v>
       </c>
       <c r="E3" s="21"/>
@@ -1105,10 +1129,10 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="30">
         <v>3</v>
       </c>
       <c r="E4" s="21"/>
@@ -1116,10 +1140,10 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="30">
         <v>5</v>
       </c>
       <c r="E5" s="21"/>
@@ -1127,10 +1151,10 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="30">
         <v>3</v>
       </c>
       <c r="E6" s="21"/>
@@ -1138,10 +1162,10 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="30">
         <v>10</v>
       </c>
       <c r="E7" s="21"/>
@@ -1149,10 +1173,10 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="30">
         <v>5</v>
       </c>
       <c r="E8" s="21"/>
@@ -1160,10 +1184,10 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="30">
         <v>3</v>
       </c>
       <c r="E9" s="21"/>
@@ -1171,10 +1195,10 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="30">
         <v>5</v>
       </c>
       <c r="E10" s="21"/>
@@ -1182,10 +1206,10 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="30">
         <v>5</v>
       </c>
       <c r="E11" s="21"/>
@@ -1207,31 +1231,31 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="29">
         <v>47</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="29">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="30">
         <v>47</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="30">
         <v>47</v>
       </c>
     </row>
@@ -1267,10 +1291,10 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="30">
         <v>5</v>
       </c>
       <c r="E17" s="23"/>
@@ -1278,10 +1302,10 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="30">
         <v>5</v>
       </c>
       <c r="E18" s="23"/>
@@ -1289,10 +1313,10 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="30">
         <v>10</v>
       </c>
       <c r="E19" s="23"/>
@@ -1300,10 +1324,10 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="30">
         <v>10</v>
       </c>
       <c r="E20" s="24"/>
@@ -1412,52 +1436,52 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="30">
         <v>5</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="30"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="1" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="30">
         <v>5</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="30"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="1" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="30">
         <v>20</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="30"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="1" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="30">
         <f>SUM(D29:D31)</f>
         <v>30</v>
       </c>
@@ -1597,8 +1621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7C6054-B55E-477B-B78A-D9E00A6F2910}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:E18"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1839,7 +1863,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="28" t="s">
         <v>92</v>
       </c>
       <c r="B21" t="s">
@@ -1847,13 +1871,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
+      <c r="A22" s="28"/>
       <c r="B22" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
+      <c r="A23" s="28"/>
       <c r="B23" t="s">
         <v>95</v>
       </c>
@@ -1896,7 +1920,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:E18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/doc/SOMI工作量估算.xlsx
+++ b/doc/SOMI工作量估算.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\research17\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\gw_health\somi\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0B40D3-3FF3-4476-A479-7E2425C9979A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D0ED08-33DB-4431-B6E3-5DF57DC1F013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="患者+医生版本" sheetId="5" r:id="rId1"/>
@@ -668,7 +668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,6 +764,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1047,20 +1050,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652B373E-8C78-4494-A7E7-8897C2F3E6EC}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="3" max="3" width="39.90625" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="39.875" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1073,14 +1076,14 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="32" t="s">
         <v>72</v>
       </c>
       <c r="D2" s="1">
@@ -1091,10 +1094,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="1">
@@ -1102,10 +1105,10 @@
       </c>
       <c r="E3" s="21"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="32" t="s">
         <v>74</v>
       </c>
       <c r="D4" s="1">
@@ -1113,10 +1116,10 @@
       </c>
       <c r="E4" s="21"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="32" t="s">
         <v>66</v>
       </c>
       <c r="D5" s="1">
@@ -1124,10 +1127,10 @@
       </c>
       <c r="E5" s="21"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="32" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="1">
@@ -1135,10 +1138,10 @@
       </c>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="32" t="s">
         <v>68</v>
       </c>
       <c r="D7" s="1">
@@ -1146,10 +1149,10 @@
       </c>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="32" t="s">
         <v>67</v>
       </c>
       <c r="D8" s="1">
@@ -1157,10 +1160,10 @@
       </c>
       <c r="E8" s="21"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="32" t="s">
         <v>54</v>
       </c>
       <c r="D9" s="1">
@@ -1168,10 +1171,10 @@
       </c>
       <c r="E9" s="21"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="32" t="s">
         <v>55</v>
       </c>
       <c r="D10" s="1">
@@ -1179,10 +1182,10 @@
       </c>
       <c r="E10" s="21"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D11" s="1">
@@ -1190,7 +1193,7 @@
       </c>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
         <v>44</v>
@@ -1205,7 +1208,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
       <c r="B13" s="1" t="s">
         <v>46</v>
@@ -1220,7 +1223,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
         <v>47</v>
@@ -1235,7 +1238,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="21" t="s">
         <v>48</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="1" t="s">
@@ -1264,7 +1267,7 @@
       </c>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="1" t="s">
@@ -1275,7 +1278,7 @@
       </c>
       <c r="E17" s="23"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="1" t="s">
@@ -1286,7 +1289,7 @@
       </c>
       <c r="E18" s="23"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="1" t="s">
@@ -1297,7 +1300,7 @@
       </c>
       <c r="E19" s="23"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="1" t="s">
@@ -1308,7 +1311,7 @@
       </c>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="21"/>
       <c r="B21" s="1" t="s">
         <v>44</v>
@@ -1323,7 +1326,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="21"/>
       <c r="B22" s="1" t="s">
         <v>47</v>
@@ -1338,14 +1341,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="21" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="32" t="s">
         <v>86</v>
       </c>
       <c r="D23" s="1">
@@ -1353,10 +1356,10 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="32" t="s">
         <v>81</v>
       </c>
       <c r="D24" s="1">
@@ -1364,10 +1367,10 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="32" t="s">
         <v>75</v>
       </c>
       <c r="D25" s="1">
@@ -1375,10 +1378,10 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="32" t="s">
         <v>85</v>
       </c>
       <c r="D26" s="1">
@@ -1386,10 +1389,10 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="32" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="1">
@@ -1397,7 +1400,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="1" t="s">
@@ -1411,14 +1414,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="21" t="s">
         <v>63</v>
       </c>
       <c r="B29" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="32" t="s">
         <v>69</v>
       </c>
       <c r="D29" s="1">
@@ -1426,10 +1429,10 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="21"/>
       <c r="B30" s="29"/>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="32" t="s">
         <v>65</v>
       </c>
       <c r="D30" s="1">
@@ -1437,7 +1440,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="21"/>
       <c r="B31" s="29"/>
       <c r="C31" s="1" t="s">
@@ -1448,7 +1451,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="21"/>
       <c r="B32" s="30"/>
       <c r="C32" s="1" t="s">
@@ -1462,12 +1465,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="32" t="s">
         <v>76</v>
       </c>
       <c r="D33" s="1">
@@ -1475,10 +1478,10 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="21"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="32" t="s">
         <v>77</v>
       </c>
       <c r="D34" s="1">
@@ -1489,7 +1492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="21" t="s">
         <v>78</v>
       </c>
@@ -1504,7 +1507,7 @@
       </c>
       <c r="E35" s="22"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="21"/>
       <c r="B36" s="1" t="s">
         <v>44</v>
@@ -1515,7 +1518,7 @@
       <c r="D36" s="26"/>
       <c r="E36" s="23"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="21"/>
       <c r="B37" s="1" t="s">
         <v>47</v>
@@ -1526,7 +1529,7 @@
       <c r="D37" s="26"/>
       <c r="E37" s="23"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="21"/>
       <c r="B38" s="1" t="s">
         <v>49</v>
@@ -1535,7 +1538,7 @@
       <c r="D38" s="26"/>
       <c r="E38" s="23"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="21"/>
       <c r="B39" s="1" t="s">
         <v>63</v>
@@ -1544,7 +1547,7 @@
       <c r="D39" s="27"/>
       <c r="E39" s="24"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D40" s="19" t="s">
         <v>87</v>
       </c>
@@ -1553,7 +1556,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D41" s="19" t="s">
         <v>88</v>
       </c>
@@ -1562,7 +1565,7 @@
         <v>18.19047619047619</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D42" s="19" t="s">
         <v>89</v>
       </c>
@@ -1597,23 +1600,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7C6054-B55E-477B-B78A-D9E00A6F2910}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D16" sqref="D16:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="34.6328125" customWidth="1"/>
-    <col min="2" max="5" width="19.453125" customWidth="1"/>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="2" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
@@ -1630,7 +1633,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>33</v>
       </c>
@@ -1645,7 +1648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1660,7 +1663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>23</v>
       </c>
@@ -1675,7 +1678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>24</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
@@ -1705,7 +1708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>26</v>
       </c>
@@ -1720,7 +1723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
         <v>27</v>
       </c>
@@ -1735,7 +1738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -1746,7 +1749,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
@@ -1759,7 +1762,7 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
         <v>29</v>
       </c>
@@ -1772,7 +1775,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
@@ -1785,7 +1788,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
         <v>32</v>
       </c>
@@ -1798,7 +1801,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1810,7 +1813,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1822,7 +1825,7 @@
         <v>9.0476190476190474</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1833,12 +1836,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="31" t="s">
         <v>92</v>
       </c>
@@ -1846,19 +1849,19 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="31"/>
       <c r="B22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="31"/>
       <c r="B23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -1866,17 +1869,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>100</v>
       </c>
@@ -1895,23 +1898,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032DB1BC-FB6B-45D3-817E-D3835F653BD1}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:E18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="34.6328125" customWidth="1"/>
-    <col min="2" max="5" width="19.453125" customWidth="1"/>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="2" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>33</v>
       </c>
@@ -1943,7 +1946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1958,7 +1961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>23</v>
       </c>
@@ -1973,7 +1976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>24</v>
       </c>
@@ -1988,7 +1991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
@@ -2003,7 +2006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>26</v>
       </c>
@@ -2018,7 +2021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
         <v>27</v>
       </c>
@@ -2033,7 +2036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -2044,7 +2047,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
@@ -2057,7 +2060,7 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
         <v>29</v>
       </c>
@@ -2070,7 +2073,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
@@ -2083,7 +2086,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
         <v>32</v>
       </c>
@@ -2096,7 +2099,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -2108,7 +2111,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -2120,7 +2123,7 @@
         <v>4.9523809523809526</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -2142,25 +2145,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42306412-552D-4434-8DB6-94CB4F18D99F}">
   <dimension ref="A2:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2171,7 +2174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2179,7 +2182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2187,12 +2190,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -2203,7 +2206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2214,7 +2217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2225,7 +2228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>102</v>
       </c>
@@ -2236,7 +2239,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>105</v>
       </c>
@@ -2247,7 +2250,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>108</v>
       </c>
@@ -2258,7 +2261,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -2269,7 +2272,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -2289,7 +2292,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -2306,7 +2309,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -2326,7 +2329,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
@@ -2340,7 +2343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="6" t="s">
         <v>113</v>
@@ -2352,7 +2355,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -2366,7 +2369,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2383,7 +2386,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -2400,7 +2403,7 @@
         <v>470.40000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="17" t="s">
         <v>18</v>
       </c>
@@ -2417,7 +2420,7 @@
         <v>171696</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>116</v>
       </c>
@@ -2434,7 +2437,7 @@
         <v>288.00000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>117</v>
       </c>
@@ -2451,7 +2454,7 @@
         <v>8640.0000000000018</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="17" t="s">
         <v>118</v>
       </c>
